--- a/biology/Zoologie/Gila_(genre)/Gila_(genre).xlsx
+++ b/biology/Zoologie/Gila_(genre)/Gila_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le genre Gila regroupe plusieurs poissons de la famille des Cyprinidae.
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (16 mai 2015)[1][2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (16 mai 2015) :
 Gila atraria (Girard, 1856)
 Gila brevicauda Norris, Fischer &amp; Minckley, 2003
 Gila coerulea (Girard, 1856)
@@ -534,9 +548,43 @@
 Gila pulchra (Girard, 1856)
 Gila purpurea (Girard, 1856)
 Gila robusta Baird &amp; Girard, 1853
-Gila seminuda Cope &amp; Yarrow, 1875
-Note
-Gila crassicauda †</t>
+Gila seminuda Cope &amp; Yarrow, 1875</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gila_(genre)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gila_(genre)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gila crassicauda †</t>
         </is>
       </c>
     </row>
